--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N2">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q2">
-        <v>25.66263688658078</v>
+        <v>2.789589900122</v>
       </c>
       <c r="R2">
-        <v>230.963731979227</v>
+        <v>25.106309101098</v>
       </c>
       <c r="S2">
-        <v>0.4405146054273839</v>
+        <v>0.0250899239731425</v>
       </c>
       <c r="T2">
-        <v>0.4405146054273839</v>
+        <v>0.0250899239731425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
         <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P3">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q3">
-        <v>2.621084680778778</v>
+        <v>0.148377486574</v>
       </c>
       <c r="R3">
-        <v>23.589762127009</v>
+        <v>1.335397379166</v>
       </c>
       <c r="S3">
-        <v>0.04499249586268306</v>
+        <v>0.001334525858910236</v>
       </c>
       <c r="T3">
-        <v>0.04499249586268308</v>
+        <v>0.001334525858910236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N4">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O4">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P4">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q4">
-        <v>1.98859088363</v>
+        <v>0.21826816259</v>
       </c>
       <c r="R4">
-        <v>17.89731795267</v>
+        <v>1.96441346331</v>
       </c>
       <c r="S4">
-        <v>0.03413535921231976</v>
+        <v>0.001963131428351209</v>
       </c>
       <c r="T4">
-        <v>0.03413535921231977</v>
+        <v>0.001963131428351208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H5">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N5">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q5">
-        <v>18.12228991213189</v>
+        <v>1.855911411862</v>
       </c>
       <c r="R5">
-        <v>163.100609209187</v>
+        <v>16.703202706758</v>
       </c>
       <c r="S5">
-        <v>0.3110800119787336</v>
+        <v>0.0166923016972741</v>
       </c>
       <c r="T5">
-        <v>0.3110800119787336</v>
+        <v>0.0166923016972741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H6">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I6">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J6">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N6">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q6">
-        <v>0.539903064363</v>
+        <v>0.035497059326</v>
       </c>
       <c r="R6">
-        <v>4.859127579267</v>
+        <v>0.319473533934</v>
       </c>
       <c r="S6">
-        <v>0.009267761002816842</v>
+        <v>0.0003192650359540371</v>
       </c>
       <c r="T6">
-        <v>0.009267761002816843</v>
+        <v>0.0003192650359540371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H7">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I7">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J7">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N7">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q7">
-        <v>2.192300375207222</v>
+        <v>0.111751357898</v>
       </c>
       <c r="R7">
-        <v>19.730703376865</v>
+        <v>1.005762221082</v>
       </c>
       <c r="S7">
-        <v>0.03763215522360094</v>
+        <v>0.001005105830585935</v>
       </c>
       <c r="T7">
-        <v>0.03763215522360094</v>
+        <v>0.001005105830585935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H8">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N8">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q8">
-        <v>3.578454973409</v>
+        <v>49.27803753582522</v>
       </c>
       <c r="R8">
-        <v>32.206094760681</v>
+        <v>443.502337822427</v>
       </c>
       <c r="S8">
-        <v>0.06142633306225904</v>
+        <v>0.4432128949367953</v>
       </c>
       <c r="T8">
-        <v>0.06142633306225904</v>
+        <v>0.4432128949367953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H9">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
         <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P9">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q9">
-        <v>0.365489858003</v>
+        <v>2.621084680778778</v>
       </c>
       <c r="R9">
-        <v>3.289408722027</v>
+        <v>23.589762127009</v>
       </c>
       <c r="S9">
-        <v>0.006273853357216472</v>
+        <v>0.02357436674295098</v>
       </c>
       <c r="T9">
-        <v>0.006273853357216473</v>
+        <v>0.02357436674295098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H10">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N10">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O10">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P10">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q10">
-        <v>0.27729352089</v>
+        <v>3.855701767673889</v>
       </c>
       <c r="R10">
-        <v>2.49564168801</v>
+        <v>34.701315909065</v>
       </c>
       <c r="S10">
-        <v>0.004759910155853963</v>
+        <v>0.03467866879279217</v>
       </c>
       <c r="T10">
-        <v>0.004759910155853964</v>
+        <v>0.03467866879279217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H11">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N11">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q11">
-        <v>2.527012276729001</v>
+        <v>32.78462981705744</v>
       </c>
       <c r="R11">
-        <v>22.743110490561</v>
+        <v>295.061668353517</v>
       </c>
       <c r="S11">
-        <v>0.04337768643624948</v>
+        <v>0.2948691022869053</v>
       </c>
       <c r="T11">
-        <v>0.04337768643624948</v>
+        <v>0.2948691022869053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H12">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I12">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J12">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N12">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q12">
-        <v>0.075285280089</v>
+        <v>0.6270546870712222</v>
       </c>
       <c r="R12">
-        <v>0.6775675208009999</v>
+        <v>5.643492183641</v>
       </c>
       <c r="S12">
-        <v>0.00129231713792583</v>
+        <v>0.005639809071911097</v>
       </c>
       <c r="T12">
-        <v>0.00129231713792583</v>
+        <v>0.005639809071911098</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.030023666666667</v>
+      </c>
+      <c r="H13">
+        <v>6.090071</v>
+      </c>
+      <c r="I13">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="J13">
+        <v>0.819730011809897</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9724443333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.917333</v>
+      </c>
+      <c r="O13">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="P13">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="Q13">
+        <v>1.974085011182556</v>
+      </c>
+      <c r="R13">
+        <v>17.766765100643</v>
+      </c>
+      <c r="S13">
+        <v>0.01775516997854213</v>
+      </c>
+      <c r="T13">
+        <v>0.01775516997854213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.994537</v>
+      </c>
+      <c r="I14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.27461233333333</v>
+      </c>
+      <c r="N14">
+        <v>72.823837</v>
+      </c>
+      <c r="O14">
+        <v>0.540681551915145</v>
+      </c>
+      <c r="P14">
+        <v>0.540681551915145</v>
+      </c>
+      <c r="Q14">
+        <v>8.047333375385445</v>
+      </c>
+      <c r="R14">
+        <v>72.426000378469</v>
+      </c>
+      <c r="S14">
+        <v>0.07237873300520727</v>
+      </c>
+      <c r="T14">
+        <v>0.07237873300520725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.994537</v>
+      </c>
+      <c r="I15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.291159666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.873479</v>
+      </c>
+      <c r="O15">
+        <v>0.0287586966480594</v>
+      </c>
+      <c r="P15">
+        <v>0.0287586966480594</v>
+      </c>
+      <c r="Q15">
+        <v>0.4280353538025556</v>
+      </c>
+      <c r="R15">
+        <v>3.852318184223</v>
+      </c>
+      <c r="S15">
+        <v>0.003849804046198187</v>
+      </c>
+      <c r="T15">
+        <v>0.003849804046198186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.994537</v>
+      </c>
+      <c r="I16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.899338333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.698015</v>
+      </c>
+      <c r="O16">
+        <v>0.04230498858547889</v>
+      </c>
+      <c r="P16">
+        <v>0.04230498858547889</v>
+      </c>
+      <c r="Q16">
+        <v>0.6296540826727778</v>
+      </c>
+      <c r="R16">
+        <v>5.666886744055</v>
+      </c>
+      <c r="S16">
+        <v>0.005663188364335514</v>
+      </c>
+      <c r="T16">
+        <v>0.005663188364335513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.994537</v>
+      </c>
+      <c r="I17">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J17">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.14987566666667</v>
+      </c>
+      <c r="N17">
+        <v>48.449627</v>
+      </c>
+      <c r="O17">
+        <v>0.3597149037350217</v>
+      </c>
+      <c r="P17">
+        <v>0.3597149037350217</v>
+      </c>
+      <c r="Q17">
+        <v>5.353882965299889</v>
+      </c>
+      <c r="R17">
+        <v>48.184946687699</v>
+      </c>
+      <c r="S17">
+        <v>0.04815349975084231</v>
+      </c>
+      <c r="T17">
+        <v>0.04815349975084231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.994537</v>
+      </c>
+      <c r="I18">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J18">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.283071</v>
-      </c>
-      <c r="H13">
-        <v>0.849213</v>
-      </c>
-      <c r="I13">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="J13">
-        <v>0.1223776112924619</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.079938333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.239815</v>
-      </c>
-      <c r="O13">
-        <v>0.04287966636655803</v>
-      </c>
-      <c r="P13">
-        <v>0.04287966636655803</v>
-      </c>
-      <c r="Q13">
-        <v>0.305699223955</v>
-      </c>
-      <c r="R13">
-        <v>2.751293015595</v>
-      </c>
-      <c r="S13">
-        <v>0.00524751114295709</v>
-      </c>
-      <c r="T13">
-        <v>0.00524751114295709</v>
+      <c r="M18">
+        <v>0.3088903333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.926671</v>
+      </c>
+      <c r="O18">
+        <v>0.006880081234867635</v>
+      </c>
+      <c r="P18">
+        <v>0.006880081234867635</v>
+      </c>
+      <c r="Q18">
+        <v>0.1024009551474444</v>
+      </c>
+      <c r="R18">
+        <v>0.921608596327</v>
+      </c>
+      <c r="S18">
+        <v>0.0009210071270025008</v>
+      </c>
+      <c r="T18">
+        <v>0.0009210071270025008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.994537</v>
+      </c>
+      <c r="I19">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J19">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9724443333333334</v>
+      </c>
+      <c r="N19">
+        <v>2.917333</v>
+      </c>
+      <c r="O19">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="P19">
+        <v>0.02165977788142728</v>
+      </c>
+      <c r="Q19">
+        <v>0.3223772899801111</v>
+      </c>
+      <c r="R19">
+        <v>2.901395609821</v>
+      </c>
+      <c r="S19">
+        <v>0.002899502072299216</v>
+      </c>
+      <c r="T19">
+        <v>0.002899502072299216</v>
       </c>
     </row>
   </sheetData>
